--- a/Excel/CountNormalizedEelgrassCompiledDateChange.xlsx
+++ b/Excel/CountNormalizedEelgrassCompiledDateChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24620" windowHeight="15360" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25040" windowHeight="15600" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
@@ -44762,10 +44762,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1072"/>
+  <dimension ref="A1:P1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="B1053" workbookViewId="0">
+      <selection activeCell="P1074" sqref="P1074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -46250,10 +46250,6 @@
       <c r="L33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P33" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="9" t="s">
@@ -46277,10 +46273,6 @@
       <c r="L34" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P34" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="9" t="s">
@@ -46304,10 +46296,6 @@
       <c r="L35" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P35" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="9" t="s">
@@ -46331,10 +46319,6 @@
       <c r="L36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P36" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="3" t="s">
@@ -48112,10 +48096,6 @@
       <c r="L74" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P74" s="9" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="9" t="s">
@@ -48139,10 +48119,6 @@
       <c r="L75" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P75" s="9" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="9" t="s">
@@ -48166,10 +48142,6 @@
       <c r="L76" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P76" s="9" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="9" t="s">
@@ -48193,10 +48165,6 @@
       <c r="L77" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P77" s="9" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="3" t="s">
@@ -49263,10 +49231,6 @@
       <c r="L100" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P100" s="9" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="9" t="s">
@@ -49290,10 +49254,6 @@
       <c r="L101" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P101" s="9" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="9" t="s">
@@ -49317,10 +49277,6 @@
       <c r="L102" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P102" s="9" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="9" t="s">
@@ -49344,10 +49300,6 @@
       <c r="L103" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P103" s="9" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="3" t="s">
@@ -52345,10 +52297,6 @@
       <c r="L164" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P164" s="9" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="9" t="s">
@@ -52375,10 +52323,6 @@
       <c r="L165" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P165" s="9" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="9" t="s">
@@ -52405,10 +52349,6 @@
       <c r="L166" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P166" s="9" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="9" t="s">
@@ -52435,10 +52375,6 @@
       <c r="L167" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P167" s="9" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="3" t="s">
@@ -54009,10 +53945,6 @@
       <c r="L199" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P199" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="200" spans="1:16">
       <c r="A200" s="9" t="s">
@@ -54036,10 +53968,6 @@
       <c r="L200" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P200" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="201" spans="1:16">
       <c r="A201" s="9" t="s">
@@ -54063,10 +53991,6 @@
       <c r="L201" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P201" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="202" spans="1:16">
       <c r="A202" s="9" t="s">
@@ -54090,10 +54014,6 @@
       <c r="L202" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P202" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="203" spans="1:16">
       <c r="A203" s="9" t="s">
@@ -55634,10 +55554,6 @@
       <c r="L235" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P235" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="236" spans="1:16">
       <c r="A236" s="9" t="s">
@@ -55661,10 +55577,6 @@
       <c r="L236" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P236" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="237" spans="1:16">
       <c r="A237" s="9" t="s">
@@ -55688,10 +55600,6 @@
       <c r="L237" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P237" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="238" spans="1:16">
       <c r="A238" s="9" t="s">
@@ -55715,10 +55623,6 @@
       <c r="L238" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P238" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="239" spans="1:16">
       <c r="A239" s="3" t="s">
@@ -59111,10 +59015,6 @@
       <c r="L312" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P312" s="9" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="313" spans="1:16">
       <c r="A313" s="9" t="s">
@@ -59970,10 +59870,6 @@
       <c r="L331" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P331" s="9" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="332" spans="1:16">
       <c r="A332" s="3" t="s">
@@ -61898,10 +61794,6 @@
       <c r="L373" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P373" s="9" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="374" spans="1:16">
       <c r="A374" s="3" t="s">
@@ -61924,10 +61816,6 @@
       </c>
       <c r="L374" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="P374" s="9" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -64034,10 +63922,6 @@
       <c r="L420" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P420" s="9" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="421" spans="1:16">
       <c r="A421" s="3" t="s">
@@ -64060,10 +63944,6 @@
       </c>
       <c r="L421" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="P421" s="9" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -65568,10 +65448,6 @@
       <c r="L454" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P454" s="9" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="455" spans="1:16">
       <c r="A455" s="3" t="s">
@@ -65594,10 +65470,6 @@
       </c>
       <c r="L455" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="P455" s="9" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -66826,10 +66698,6 @@
       <c r="L482" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P482" s="9" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="483" spans="1:16">
       <c r="A483" s="3" t="s">
@@ -66852,10 +66720,6 @@
       </c>
       <c r="L483" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="P483" s="9" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -68508,10 +68372,6 @@
       <c r="L517" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P517" s="9" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="518" spans="1:16">
       <c r="A518" s="3" t="s">
@@ -68537,10 +68397,6 @@
       </c>
       <c r="L518" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="P518" s="9" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="519" spans="1:16">
@@ -70187,10 +70043,6 @@
       <c r="L554" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P554" s="9" t="e">
-        <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="555" spans="1:16">
       <c r="A555" s="3" t="s">
@@ -70213,10 +70065,6 @@
       </c>
       <c r="L555" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="P555" s="9" t="e">
-        <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -71399,10 +71247,6 @@
       <c r="L581" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P581" s="9" t="e">
-        <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="582" spans="1:16">
       <c r="A582" s="3" t="s">
@@ -71425,10 +71269,6 @@
       </c>
       <c r="L582" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="P582" s="9" t="e">
-        <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -73551,10 +73391,6 @@
       <c r="L628" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P628" s="9" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="629" spans="1:16">
       <c r="A629" s="3" t="s">
@@ -73577,10 +73413,6 @@
       </c>
       <c r="L629" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="P629" s="9" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -75605,10 +75437,6 @@
       <c r="L672" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P672" s="9" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="673" spans="1:16">
       <c r="A673" s="3" t="s">
@@ -75631,10 +75459,6 @@
       </c>
       <c r="L673" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="P673" s="9" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -77434,10 +77258,6 @@
       <c r="L710" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P710" s="9" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="711" spans="1:16">
       <c r="A711" s="9" t="s">
@@ -79280,10 +79100,6 @@
       <c r="L748" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P748" s="9" t="e">
-        <f t="shared" si="76"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="749" spans="1:16">
       <c r="A749" s="3" t="s">
@@ -81095,10 +80911,6 @@
       <c r="L786" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P786" s="9" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="787" spans="1:16">
       <c r="A787" s="9" t="s">
@@ -81122,10 +80934,6 @@
       <c r="L787" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P787" s="9" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="788" spans="1:16">
       <c r="A788" s="9" t="s">
@@ -81149,10 +80957,6 @@
       <c r="L788" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P788" s="9" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="789" spans="1:16">
       <c r="A789" s="9" t="s">
@@ -81176,10 +80980,6 @@
       <c r="L789" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P789" s="9" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="790" spans="1:16">
       <c r="A790" s="9" t="s">
@@ -81206,10 +81006,6 @@
       <c r="L790" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P790" s="9" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="791" spans="1:16">
       <c r="A791" s="9" t="s">
@@ -82417,10 +82213,6 @@
       <c r="L815" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P815" s="9" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="816" spans="1:16">
       <c r="A816" s="9" t="s">
@@ -82444,10 +82236,6 @@
       <c r="L816" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P816" s="9" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="817" spans="1:16">
       <c r="A817" s="9" t="s">
@@ -82471,10 +82259,6 @@
       <c r="L817" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P817" s="9" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="818" spans="1:16">
       <c r="A818" s="9" t="s">
@@ -82498,10 +82282,6 @@
       <c r="L818" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P818" s="9" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="819" spans="1:16">
       <c r="A819" s="9" t="s">
@@ -82525,10 +82305,6 @@
       <c r="L819" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P819" s="9" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="820" spans="1:16">
       <c r="A820" s="9" t="s">
@@ -82552,10 +82328,6 @@
       <c r="L820" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P820" s="9" t="e">
-        <f t="shared" ref="P820:P883" si="89">M820/J820</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="821" spans="1:16">
       <c r="A821" s="9" t="s">
@@ -82579,10 +82351,6 @@
       <c r="L821" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P821" s="9" t="e">
-        <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="822" spans="1:16">
       <c r="A822" s="9" t="s">
@@ -82630,7 +82398,7 @@
         <v>59</v>
       </c>
       <c r="P822" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="P820:P883" si="89">M822/J822</f>
         <v>1</v>
       </c>
     </row>
@@ -83822,10 +83590,6 @@
       <c r="L848" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P848" s="9" t="e">
-        <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="849" spans="1:16">
       <c r="A849" s="9" t="s">
@@ -83849,10 +83613,6 @@
       <c r="L849" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P849" s="9" t="e">
-        <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="850" spans="1:16">
       <c r="A850" s="9" t="s">
@@ -83876,10 +83636,6 @@
       <c r="L850" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P850" s="9" t="e">
-        <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="851" spans="1:16">
       <c r="A851" s="9" t="s">
@@ -85164,10 +84920,6 @@
       <c r="L878" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P878" s="9" t="e">
-        <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="879" spans="1:16">
       <c r="A879" s="9" t="s">
@@ -85191,10 +84943,6 @@
       <c r="L879" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P879" s="9" t="e">
-        <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="880" spans="1:16">
       <c r="A880" s="9" t="s">
@@ -85218,10 +84966,6 @@
       <c r="L880" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P880" s="9" t="e">
-        <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="881" spans="1:16">
       <c r="A881" s="9" t="s">
@@ -85245,10 +84989,6 @@
       <c r="L881" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P881" s="9" t="e">
-        <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="882" spans="1:16">
       <c r="A882" s="9" t="s">
@@ -91406,10 +91146,6 @@
       <c r="L1020" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P1020" s="9" t="e">
-        <f t="shared" si="108"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="1021" spans="1:16">
       <c r="A1021" s="9" t="s">
@@ -91427,10 +91163,6 @@
       <c r="L1021" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P1021" s="9" t="e">
-        <f t="shared" si="108"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="1022" spans="1:16">
       <c r="A1022" s="3" t="s">
@@ -92229,10 +91961,6 @@
       <c r="L1039" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P1039" s="9" t="e">
-        <f t="shared" si="127"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="1040" spans="1:16">
       <c r="A1040" s="9" t="s">
@@ -92254,10 +91982,6 @@
       <c r="L1040" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P1040" s="9" t="e">
-        <f t="shared" si="127"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="1041" spans="1:16">
       <c r="A1041" s="9" t="s">
@@ -92279,10 +92003,6 @@
       <c r="L1041" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P1041" s="9" t="e">
-        <f t="shared" si="127"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="1042" spans="1:16">
       <c r="A1042" s="9" t="s">
@@ -92926,10 +92646,6 @@
       <c r="L1056" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P1056" s="9" t="e">
-        <f t="shared" si="127"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="1057" spans="1:16">
       <c r="A1057" s="9" t="s">
@@ -93635,6 +93351,12 @@
       <c r="P1072" s="9">
         <f t="shared" si="127"/>
         <v>4</v>
+      </c>
+    </row>
+    <row r="1074" spans="16:16">
+      <c r="P1074" s="9">
+        <f>SUM(P1:P1072)</f>
+        <v>29487.265762900013</v>
       </c>
     </row>
   </sheetData>
